--- a/biology/Microbiologie/Grandoriidae/Grandoriidae.xlsx
+++ b/biology/Microbiologie/Grandoriidae/Grandoriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Grandoriidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Colpodida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Grandoria, donné par Corliss en hommage à Luigia et Remo Grandori qui, en 1934, décrivirent le genre Lagenella futur synonyme du genre Grandoria.
 </t>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Citant C.R.Curds The World of Protozoa rapporte du genre Grandoria la description suivante : 
-« Forme du corps asymétrique mais approximativement pyriforme dans son contour, la partie postérieure étant plus étroite que l'antérieure. Corps uniformément cilié en rangées longitudinales/obliques. Ouverture vestibulaire ovale, dans l'équateur du corps. Il existe un faisceau de fibres gélatineuses à l'extrémité postérieure de la cellule par lequel elle se fixe à un substrat. Une forte soie est également présente à l'extrémité postérieure et est maintenue sur le côté. Plusieurs vacuoles contractiles réparties sur le corps. Macronoyau sphérique dans la partie antérieure du corps[1],[2]. »
+« Forme du corps asymétrique mais approximativement pyriforme dans son contour, la partie postérieure étant plus étroite que l'antérieure. Corps uniformément cilié en rangées longitudinales/obliques. Ouverture vestibulaire ovale, dans l'équateur du corps. Il existe un faisceau de fibres gélatineuses à l'extrémité postérieure de la cellule par lequel elle se fixe à un substrat. Une forte soie est également présente à l'extrémité postérieure et est maintenue sur le côté. Plusieurs vacuoles contractiles réparties sur le corps. Macronoyau sphérique dans la partie antérieure du corps,. »
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Grandoria n'est connu que par un seul enregistrement trouvé dans le sol en Italie en 1934[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Grandoria n'est connu que par un seul enregistrement trouvé dans le sol en Italie en 1934.
 </t>
         </is>
       </c>
@@ -606,11 +624,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (10 novembre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (10 novembre 2022) :
 Grandoria Corliss, 1960
-Lagenella Grandori &amp; Grandori, 1934 (possible synonyme de Grandoria[1])</t>
+Lagenella Grandori &amp; Grandori, 1934 (possible synonyme de Grandoria)</t>
         </is>
       </c>
     </row>
@@ -638,9 +658,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Grandoriidae Corliss, 1960[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Grandoriidae Corliss, 1960.
 </t>
         </is>
       </c>
